--- a/EXP 1/T1.xlsx
+++ b/EXP 1/T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E421F3D2-09AC-4748-BE82-A9CC5FA32B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49C057-F2EA-4F01-83F8-749B2BD33D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{388873A1-1D81-4FBC-B7B2-E76B85DF23E0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="56">
   <si>
     <t>R</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,23 +490,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -15908,7 +15911,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>R(T)</a:t>
+              <a:t>R(T) - Sobreposição</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15942,7 +15945,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Aquecimento</c:v>
+            <c:v>Aquecimento Potência 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -16140,7 +16143,7 @@
           <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Arrefecimento</c:v>
+            <c:v>Arrefecimento - Potência 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -16352,7 +16355,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Aquecimento</c:v>
+            <c:v>Aquecimento - Potência 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -16636,7 +16639,7 @@
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Arrefecimento</c:v>
+            <c:v>Arrefecimento - Potência 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -17103,10 +17106,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72241901709401724"/>
-          <c:y val="0.58064375037009519"/>
-          <c:w val="0.20653739316239317"/>
-          <c:h val="0.2229002815415341"/>
+          <c:x val="0.59459032484920726"/>
+          <c:y val="0.56818977456556141"/>
+          <c:w val="0.34548142721668412"/>
+          <c:h val="0.26441305229672341"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -18153,7 +18156,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>I(T)</a:t>
+              <a:t>I(T) - Sobreposição</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18195,7 +18198,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Arrefecimento</c:v>
+            <c:v>Arrefecimento - Potência 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -18405,7 +18408,7 @@
           <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Aquecimento</c:v>
+            <c:v>Aquecimento - Potência 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -18605,7 +18608,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Arrefecimento</c:v>
+            <c:v>Arrefecimento - Potência 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -18823,7 +18826,7 @@
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Aquecimento</c:v>
+            <c:v>Aquecimento - Potência 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -19324,10 +19327,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1796839743589744"/>
-          <c:y val="0.18018404708265476"/>
-          <c:w val="0.20653739316239317"/>
-          <c:h val="0.25281070503814002"/>
+          <c:x val="0.1573722200713315"/>
+          <c:y val="0.15942768476245983"/>
+          <c:w val="0.34319644225348833"/>
+          <c:h val="0.21544912501025565"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -39220,10 +39223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BC9FC-8457-43EE-9717-3331443AA1F7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AW77"/>
+  <dimension ref="A1:AW86"/>
   <sheetViews>
-    <sheetView topLeftCell="O46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS72" sqref="AS72"/>
+    <sheetView topLeftCell="X37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV77" sqref="AV77:AY77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39273,14 +39276,14 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="28"/>
+      <c r="AH1" s="31"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -39529,12 +39532,12 @@
         <f t="shared" si="9"/>
         <v>8.5957540681746991E-2</v>
       </c>
-      <c r="AQ5" s="29" t="s">
+      <c r="AQ5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="31"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="34"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -40528,12 +40531,12 @@
         <f t="shared" si="9"/>
         <v>-4.8700185493281367E-2</v>
       </c>
-      <c r="AQ21" s="29" t="s">
+      <c r="AQ21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="31"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="34"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -41396,10 +41399,10 @@
         <f t="shared" si="17"/>
         <v>-15.259434031920801</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="37"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="2"/>
       <c r="AE35" s="3">
         <f t="shared" si="6"/>
@@ -41626,10 +41629,10 @@
         <f t="shared" si="17"/>
         <v>-14.83438787861353</v>
       </c>
-      <c r="K39" s="32" t="s">
+      <c r="K39" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="34" t="s">
+      <c r="L39" s="29" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="2"/>
@@ -41687,8 +41690,8 @@
         <f t="shared" si="17"/>
         <v>-14.692580576685147</v>
       </c>
-      <c r="K40" s="33"/>
-      <c r="L40" s="35"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="30"/>
       <c r="M40" s="2"/>
       <c r="AE40" s="3">
         <f>B39*$AR$6+$AS$6</f>
@@ -41800,11 +41803,11 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -41822,14 +41825,14 @@
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
-      <c r="AE44" s="28" t="s">
+      <c r="AE44" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28" t="s">
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AH44" s="28"/>
+      <c r="AH44" s="31"/>
       <c r="AI44" s="10"/>
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
@@ -41876,9 +41879,9 @@
       <c r="J45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -41960,9 +41963,9 @@
         <f t="shared" ref="J46" si="22">LN(H46)</f>
         <v>-14.729304409639841</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
       <c r="AE46" s="19">
         <f>B46*$AR$51+$AS$51</f>
         <v>1.2418626189049835</v>
@@ -42221,12 +42224,12 @@
         <f t="shared" si="29"/>
         <v>4.1361976485276841E-3</v>
       </c>
-      <c r="AQ50" s="29" t="s">
+      <c r="AQ50" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AR50" s="30"/>
-      <c r="AS50" s="30"/>
-      <c r="AT50" s="31"/>
+      <c r="AR50" s="33"/>
+      <c r="AS50" s="33"/>
+      <c r="AT50" s="34"/>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -43186,12 +43189,12 @@
         <f t="shared" si="29"/>
         <v>-4.5103310273120201E-4</v>
       </c>
-      <c r="AQ66" s="29" t="s">
+      <c r="AQ66" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AR66" s="30"/>
-      <c r="AS66" s="30"/>
-      <c r="AT66" s="31"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="34"/>
     </row>
     <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -43670,8 +43673,18 @@
         <v>6.8155440308641104</v>
       </c>
     </row>
+    <row r="86" spans="35:35" x14ac:dyDescent="0.25">
+      <c r="AI86" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K44:M46"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AQ50:AT50"/>
+    <mergeCell ref="AQ66:AT66"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="AE1:AF1"/>
@@ -43679,11 +43692,6 @@
     <mergeCell ref="AQ5:AT5"/>
     <mergeCell ref="AQ21:AT21"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K44:M46"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AQ50:AT50"/>
-    <mergeCell ref="AQ66:AT66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43695,8 +43703,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS59" sqref="AS59"/>
+    <sheetView tabSelected="1" topLeftCell="AA77" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AP82" sqref="AP82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43746,14 +43754,14 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="28"/>
+      <c r="AH1" s="31"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -44002,12 +44010,12 @@
         <f t="shared" si="9"/>
         <v>0.1256054603747252</v>
       </c>
-      <c r="AQ5" s="29" t="s">
+      <c r="AQ5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="31"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="34"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -45001,12 +45009,12 @@
         <f t="shared" si="9"/>
         <v>4.1712770806244137E-2</v>
       </c>
-      <c r="AQ21" s="29" t="s">
+      <c r="AQ21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="31"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="34"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -45121,10 +45129,10 @@
         <f t="shared" si="12"/>
         <v>-14.82611196930967</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="37"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="2"/>
       <c r="AE23" s="3">
         <f t="shared" si="6"/>
@@ -45387,10 +45395,10 @@
         <f t="shared" si="12"/>
         <v>-14.341449819540314</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="29" t="s">
         <v>29</v>
       </c>
       <c r="M27" s="2"/>
@@ -45448,8 +45456,8 @@
         <f t="shared" si="12"/>
         <v>-14.14818999634679</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="35"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="2"/>
       <c r="AE28" s="3">
         <f t="shared" si="6"/>
@@ -45797,11 +45805,11 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -45819,14 +45827,14 @@
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
-      <c r="AE40" s="28" t="s">
+      <c r="AE40" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28" t="s">
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AH40" s="28"/>
+      <c r="AH40" s="31"/>
       <c r="AI40" s="10"/>
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
@@ -45873,9 +45881,9 @@
       <c r="J41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -45957,9 +45965,9 @@
         <f t="shared" ref="J42:J47" si="20">LN(H42)</f>
         <v>-14.069113316763191</v>
       </c>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
       <c r="AE42" s="18"/>
       <c r="AF42" s="18"/>
       <c r="AG42" s="18"/>
@@ -46170,12 +46178,12 @@
         <f t="shared" si="22"/>
         <v>0.11425602923968903</v>
       </c>
-      <c r="AQ46" s="29" t="s">
+      <c r="AQ46" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AR46" s="30"/>
-      <c r="AS46" s="30"/>
-      <c r="AT46" s="31"/>
+      <c r="AR46" s="33"/>
+      <c r="AS46" s="33"/>
+      <c r="AT46" s="34"/>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -47102,12 +47110,12 @@
         <f t="shared" si="32"/>
         <v>-4.4210117362975865E-2</v>
       </c>
-      <c r="AQ62" s="29" t="s">
+      <c r="AQ62" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AR62" s="30"/>
-      <c r="AS62" s="30"/>
-      <c r="AT62" s="31"/>
+      <c r="AR62" s="33"/>
+      <c r="AS62" s="33"/>
+      <c r="AT62" s="34"/>
     </row>
     <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
@@ -47782,6 +47790,14 @@
         <v>14.25868598831681</v>
       </c>
     </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AH78" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" s="2">
+        <v>79</v>
+      </c>
+    </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AA79" s="2" t="s">
         <v>54</v>
@@ -47789,11 +47805,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AQ21:AT21"/>
-    <mergeCell ref="AQ5:AT5"/>
-    <mergeCell ref="AQ46:AT46"/>
     <mergeCell ref="AQ62:AT62"/>
     <mergeCell ref="K40:M42"/>
     <mergeCell ref="K29:K32"/>
@@ -47802,6 +47813,11 @@
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AQ21:AT21"/>
+    <mergeCell ref="AQ5:AT5"/>
+    <mergeCell ref="AQ46:AT46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/EXP 1/T1.xlsx
+++ b/EXP 1/T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAIII\EXP 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49C057-F2EA-4F01-83F8-749B2BD33D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD346361-F79D-40D5-BDD3-497BA85EF79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{388873A1-1D81-4FBC-B7B2-E76B85DF23E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{388873A1-1D81-4FBC-B7B2-E76B85DF23E0}"/>
   </bookViews>
   <sheets>
     <sheet name="potencia 1" sheetId="3" r:id="rId1"/>
@@ -466,17 +466,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,14 +481,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -522,7 +522,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -584,7 +584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -971,7 +971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1009,7 +1009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -1101,7 +1101,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1139,7 +1139,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -1187,7 +1187,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1201,7 +1201,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1268,7 +1268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1684,7 +1684,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1722,7 +1722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -1830,7 +1830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1868,7 +1868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -1916,7 +1916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1930,7 +1930,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2071,7 +2071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2367,7 +2367,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2405,7 +2405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -2513,7 +2513,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2551,7 +2551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -2599,7 +2599,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2613,7 +2613,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2682,7 +2682,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3032,7 +3032,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3070,7 +3070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -3178,7 +3178,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3216,7 +3216,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -3264,7 +3264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3278,7 +3278,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3960,7 +3960,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -4057,7 +4057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -4101,7 +4101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4115,7 +4115,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4790,7 +4790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -4917,7 +4917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -4961,7 +4961,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4975,7 +4975,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5037,7 +5037,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5353,7 +5353,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5391,7 +5391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -5483,7 +5483,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5521,7 +5521,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -5569,7 +5569,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5583,7 +5583,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5653,7 +5653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5974,7 +5974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6012,7 +6012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -6091,7 +6091,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6129,7 +6129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -6177,7 +6177,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6191,7 +6191,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6268,7 +6268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6802,7 +6802,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6840,7 +6840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -6920,7 +6920,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6958,7 +6958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -7006,7 +7006,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7020,7 +7020,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7098,7 +7098,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7644,7 +7644,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7682,7 +7682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -7766,7 +7766,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7804,7 +7804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -7852,7 +7852,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7866,7 +7866,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7928,7 +7928,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8262,7 +8262,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8300,7 +8300,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -8408,7 +8408,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8446,7 +8446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -8494,7 +8494,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8508,7 +8508,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8578,7 +8578,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8970,7 +8970,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9008,7 +9008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -9087,7 +9087,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9125,7 +9125,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -9173,7 +9173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9187,7 +9187,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9257,7 +9257,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9591,7 +9591,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9629,7 +9629,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -9708,7 +9708,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9746,7 +9746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -9794,7 +9794,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9808,7 +9808,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9885,7 +9885,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10446,7 +10446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10484,7 +10484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -10571,7 +10571,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10609,7 +10609,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -10657,7 +10657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10671,7 +10671,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10792,7 +10792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11338,7 +11338,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11376,7 +11376,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -11456,7 +11456,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11494,7 +11494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -11542,7 +11542,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11556,7 +11556,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11701,7 +11701,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12045,7 +12045,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12083,7 +12083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -12176,7 +12176,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12214,7 +12214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -12262,7 +12262,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12276,7 +12276,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12351,7 +12351,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12695,7 +12695,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12733,7 +12733,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -12841,7 +12841,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12879,7 +12879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -12927,7 +12927,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12941,7 +12941,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13082,7 +13082,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13396,7 +13396,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13434,7 +13434,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -13542,7 +13542,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13580,7 +13580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -13628,7 +13628,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13642,7 +13642,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13711,7 +13711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14067,7 +14067,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14105,7 +14105,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -14213,7 +14213,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14251,7 +14251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -14299,7 +14299,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14313,7 +14313,7 @@
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14929,7 +14929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -15026,7 +15026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -15070,7 +15070,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15084,7 +15084,7 @@
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15693,7 +15693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -15820,7 +15820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -15864,7 +15864,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15878,7 +15878,7 @@
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15932,10 +15932,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11446047008547008"/>
-          <c:y val="0.13268854166666666"/>
-          <c:w val="0.83441388888888879"/>
-          <c:h val="0.70041111111111121"/>
+          <c:x val="0.10356548008923673"/>
+          <c:y val="0.12417921628220488"/>
+          <c:w val="0.84530891633820571"/>
+          <c:h val="0.74721268549712028"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -15952,6 +15952,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'potencia 3'!$C$2:$C$28</c:f>
@@ -16152,6 +16156,20 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'potencia 3'!$C$45:$C$73</c:f>
@@ -16364,7 +16382,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -16650,7 +16668,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -16965,7 +16983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -17092,7 +17110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -17106,8 +17124,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.59459032484920726"/>
-          <c:y val="0.56818977456556141"/>
+          <c:x val="0.5864290598290598"/>
+          <c:y val="0.58203923611111108"/>
           <c:w val="0.34548142721668412"/>
           <c:h val="0.26441305229672341"/>
         </c:manualLayout>
@@ -17136,7 +17154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17150,7 +17168,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17227,7 +17245,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17905,7 +17923,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17943,7 +17961,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -18023,7 +18041,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18061,7 +18079,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -18109,7 +18127,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18123,7 +18141,7 @@
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18165,8 +18183,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4690485564304463"/>
-          <c:y val="3.2407407407407406E-2"/>
+          <c:x val="0.35236047008547006"/>
+          <c:y val="3.2407291666666664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -18185,10 +18203,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16071517094017096"/>
-          <c:y val="0.15750512750117088"/>
-          <c:w val="0.80444123931623934"/>
-          <c:h val="0.67559437293756031"/>
+          <c:x val="0.14424298784404502"/>
+          <c:y val="0.12772232183298091"/>
+          <c:w val="0.82078378982952405"/>
+          <c:h val="0.74792391971462191"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -18205,6 +18223,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'potencia 3'!$C$45:$C$79</c:f>
@@ -18417,6 +18439,20 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'potencia 3'!$C$2:$C$28</c:f>
@@ -18617,7 +18653,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -18837,7 +18873,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -19216,7 +19252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -19313,7 +19349,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -19327,8 +19363,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1573722200713315"/>
-          <c:y val="0.15942768476245983"/>
+          <c:x val="0.15742264957264956"/>
+          <c:y val="0.15424270833333331"/>
           <c:w val="0.34319644225348833"/>
           <c:h val="0.21544912501025565"/>
         </c:manualLayout>
@@ -19357,7 +19393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19371,7 +19407,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19457,7 +19493,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20147,7 +20183,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20185,7 +20221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -20270,7 +20306,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20308,7 +20344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -20356,7 +20392,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20370,7 +20406,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20432,7 +20468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20742,7 +20778,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20780,7 +20816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -20888,7 +20924,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20926,7 +20962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -20974,7 +21010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20988,7 +21024,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21066,7 +21102,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21376,7 +21412,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21414,7 +21450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -21493,7 +21529,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21531,7 +21567,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -21579,7 +21615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21593,7 +21629,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21670,7 +21706,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22234,7 +22270,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22272,7 +22308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -22359,7 +22395,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22397,7 +22433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -22445,7 +22481,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22459,7 +22495,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -22580,7 +22616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23084,7 +23120,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23122,7 +23158,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -23202,7 +23238,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23240,7 +23276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -23288,7 +23324,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23302,7 +23338,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23455,7 +23491,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23871,7 +23907,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23909,7 +23945,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843042927"/>
@@ -24002,7 +24038,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24040,7 +24076,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945976607"/>
@@ -24088,7 +24124,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -38855,9 +38891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>412800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>11293</xdr:rowOff>
+      <xdr:colOff>430146</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>92195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38886,16 +38922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>607121</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>412800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>11293</xdr:rowOff>
+      <xdr:colOff>430146</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>92195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38926,7 +38962,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -39229,20 +39265,20 @@
       <selection activeCell="AV77" sqref="AV77:AY77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="8.85546875" style="2"/>
-    <col min="11" max="13" width="9.140625"/>
-    <col min="14" max="43" width="8.85546875" style="2"/>
-    <col min="44" max="44" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="51" width="8.85546875" style="2"/>
-    <col min="52" max="52" width="11.7109375" style="2" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" style="2" customWidth="1"/>
-    <col min="54" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="13" width="9.109375"/>
+    <col min="14" max="43" width="8.88671875" style="2"/>
+    <col min="44" max="44" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="51" width="8.88671875" style="2"/>
+    <col min="52" max="52" width="11.6640625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="12.33203125" style="2" customWidth="1"/>
+    <col min="54" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -39276,16 +39312,16 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31" t="s">
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="31"/>
+      <c r="AH1" s="28"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>22.2</v>
       </c>
@@ -39349,7 +39385,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>22.3</v>
       </c>
@@ -39410,7 +39446,7 @@
         <v>-5.7784545236579277E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>23</v>
       </c>
@@ -39472,7 +39508,7 @@
         <v>-2.6123137766873583E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>24</v>
       </c>
@@ -39532,14 +39568,14 @@
         <f t="shared" si="9"/>
         <v>8.5957540681746991E-2</v>
       </c>
-      <c r="AQ5" s="32" t="s">
+      <c r="AQ5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="34"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="31"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>24.7</v>
       </c>
@@ -39614,7 +39650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>25</v>
       </c>
@@ -39688,7 +39724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>26</v>
       </c>
@@ -39757,7 +39793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>27</v>
       </c>
@@ -39814,7 +39850,7 @@
         <v>5.2001936754528799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>28</v>
       </c>
@@ -39878,7 +39914,7 @@
         <v>7.8201997046339899E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>29</v>
       </c>
@@ -39942,7 +39978,7 @@
         <v>3.366827054421579E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>30</v>
       </c>
@@ -40006,7 +40042,7 @@
         <v>3.4675855375682946E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>31</v>
       </c>
@@ -40070,7 +40106,7 @@
         <v>1.0299268366084892E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>32</v>
       </c>
@@ -40133,7 +40169,7 @@
         <v>0.13671101168677458</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>33</v>
       </c>
@@ -40190,7 +40226,7 @@
         <v>-3.6293454839572803E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>34.5</v>
       </c>
@@ -40247,7 +40283,7 @@
         <v>-2.67786772191414E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>35</v>
       </c>
@@ -40304,7 +40340,7 @@
         <v>6.0498013061884848E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>36</v>
       </c>
@@ -40361,7 +40397,7 @@
         <v>3.4631461092825333E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>38</v>
       </c>
@@ -40418,7 +40454,7 @@
         <v>-2.6007638674542477E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>40</v>
       </c>
@@ -40475,7 +40511,7 @@
         <v>-1.825209304649178E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42</v>
       </c>
@@ -40531,14 +40567,14 @@
         <f t="shared" si="9"/>
         <v>-4.8700185493281367E-2</v>
       </c>
-      <c r="AQ21" s="32" t="s">
+      <c r="AQ21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="34"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="31"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>44</v>
       </c>
@@ -40614,7 +40650,7 @@
         <v>1.3806490000000001E-23</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>46</v>
       </c>
@@ -40687,7 +40723,7 @@
         <v>1.5999999999999999E-19</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>48</v>
       </c>
@@ -40756,7 +40792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>50</v>
       </c>
@@ -40813,7 +40849,7 @@
         <v>2.5468588760464428E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>52</v>
       </c>
@@ -40876,7 +40912,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>54</v>
       </c>
@@ -40931,7 +40967,7 @@
         <v>-3.1382761579134666E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>56</v>
       </c>
@@ -40994,7 +41030,7 @@
       </c>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>58</v>
       </c>
@@ -41058,7 +41094,7 @@
         <v>3.942574629391459E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>60</v>
       </c>
@@ -41122,7 +41158,7 @@
         <v>7.5300290243719738E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>62</v>
       </c>
@@ -41185,7 +41221,7 @@
         <v>0.21853691050664106</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -41248,7 +41284,7 @@
         <v>11.246148022487477</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>66</v>
       </c>
@@ -41305,7 +41341,7 @@
         <v>-1.0630153428989431E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>68</v>
       </c>
@@ -41362,7 +41398,7 @@
         <v>-1.6115850226244177E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>70</v>
       </c>
@@ -41399,10 +41435,10 @@
         <f t="shared" si="17"/>
         <v>-15.259434031920801</v>
       </c>
-      <c r="K35" s="35" t="s">
+      <c r="K35" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="36"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="2"/>
       <c r="AE35" s="3">
         <f t="shared" si="6"/>
@@ -41421,7 +41457,7 @@
         <v>-5.5845319671004034E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>72</v>
       </c>
@@ -41478,7 +41514,7 @@
         <v>2.7268994919822376E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>74</v>
       </c>
@@ -41535,7 +41571,7 @@
         <v>4.9562319478630101E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>76</v>
       </c>
@@ -41592,7 +41628,7 @@
         <v>8.4546912540195862E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>78</v>
       </c>
@@ -41629,10 +41665,10 @@
         <f t="shared" si="17"/>
         <v>-14.83438787861353</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="K39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="29" t="s">
+      <c r="L39" s="34" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="2"/>
@@ -41653,7 +41689,7 @@
         <v>3.109169781492227E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>80</v>
       </c>
@@ -41690,8 +41726,8 @@
         <f t="shared" si="17"/>
         <v>-14.692580576685147</v>
       </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="30"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="2"/>
       <c r="AE40" s="3">
         <f>B39*$AR$6+$AS$6</f>
@@ -41710,7 +41746,7 @@
         <v>2.4932406843266364E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -41733,7 +41769,7 @@
         <v>6.8881314562537099E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -41742,7 +41778,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -41792,7 +41828,7 @@
       <c r="AU43" s="10"/>
       <c r="AV43" s="10"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -41803,11 +41839,11 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="K44" s="37" t="s">
+      <c r="K44" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -41825,14 +41861,14 @@
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
-      <c r="AE44" s="31" t="s">
+      <c r="AE44" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31" t="s">
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AH44" s="31"/>
+      <c r="AH44" s="28"/>
       <c r="AI44" s="10"/>
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
@@ -41848,7 +41884,7 @@
       <c r="AU44" s="10"/>
       <c r="AV44" s="10"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>4</v>
       </c>
@@ -41879,9 +41915,9 @@
       <c r="J45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -41926,7 +41962,7 @@
       <c r="AU45" s="10"/>
       <c r="AV45" s="10"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>80</v>
       </c>
@@ -41963,9 +41999,9 @@
         <f t="shared" ref="J46" si="22">LN(H46)</f>
         <v>-14.729304409639841</v>
       </c>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
       <c r="AE46" s="19">
         <f>B46*$AR$51+$AS$51</f>
         <v>1.2418626189049835</v>
@@ -41983,7 +42019,7 @@
         <v>6.9342206545179863E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>78</v>
       </c>
@@ -42043,7 +42079,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>76</v>
       </c>
@@ -42104,7 +42140,7 @@
         <v>2.5808859936390149E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>74</v>
       </c>
@@ -42164,7 +42200,7 @@
         <v>6.2324419657624475E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>72</v>
       </c>
@@ -42224,14 +42260,14 @@
         <f t="shared" si="29"/>
         <v>4.1361976485276841E-3</v>
       </c>
-      <c r="AQ50" s="32" t="s">
+      <c r="AQ50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AR50" s="33"/>
-      <c r="AS50" s="33"/>
-      <c r="AT50" s="34"/>
+      <c r="AR50" s="30"/>
+      <c r="AS50" s="30"/>
+      <c r="AT50" s="31"/>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>70</v>
       </c>
@@ -42304,7 +42340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>68</v>
       </c>
@@ -42377,7 +42413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>66</v>
       </c>
@@ -42450,7 +42486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>64</v>
       </c>
@@ -42504,7 +42540,7 @@
         <v>-3.7496218217993871E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>62</v>
       </c>
@@ -42565,7 +42601,7 @@
         <v>1.0163847922477487E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>60</v>
       </c>
@@ -42629,7 +42665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -42690,7 +42726,7 @@
         <v>6.8410070382622504E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -42751,7 +42787,7 @@
         <v>1.6417537449494597E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>54</v>
       </c>
@@ -42812,7 +42848,7 @@
         <v>6.8433298344138443E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>52</v>
       </c>
@@ -42866,7 +42902,7 @@
         <v>-6.8548317036992046E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>50</v>
       </c>
@@ -42920,7 +42956,7 @@
         <v>-6.9885426699165976E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>47.5</v>
       </c>
@@ -42974,7 +43010,7 @@
         <v>-4.9631949155219957E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>46</v>
       </c>
@@ -43028,7 +43064,7 @@
         <v>-2.7836760792126825E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>44</v>
       </c>
@@ -43082,7 +43118,7 @@
         <v>-4.9149038448440763E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>42</v>
       </c>
@@ -43136,7 +43172,7 @@
         <v>6.3354614516729413E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>40</v>
       </c>
@@ -43189,14 +43225,14 @@
         <f t="shared" si="29"/>
         <v>-4.5103310273120201E-4</v>
       </c>
-      <c r="AQ66" s="32" t="s">
+      <c r="AQ66" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AR66" s="33"/>
-      <c r="AS66" s="33"/>
-      <c r="AT66" s="34"/>
+      <c r="AR66" s="30"/>
+      <c r="AS66" s="30"/>
+      <c r="AT66" s="31"/>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>38</v>
       </c>
@@ -43269,7 +43305,7 @@
         <v>1.3806490000000001E-23</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>37</v>
       </c>
@@ -43341,7 +43377,7 @@
         <v>1.5999999999999999E-19</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>36</v>
       </c>
@@ -43407,7 +43443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>35</v>
       </c>
@@ -43461,7 +43497,7 @@
         <v>3.7195996125554132E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>34</v>
       </c>
@@ -43521,7 +43557,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>33</v>
       </c>
@@ -43575,7 +43611,7 @@
         <v>6.6160068847022302E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -43637,7 +43673,7 @@
       </c>
       <c r="AT73" s="9"/>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
       <c r="AR74" s="1" t="s">
         <v>18</v>
       </c>
@@ -43646,7 +43682,7 @@
         <v>6.0400347525541576E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
       <c r="AR75" s="1" t="s">
         <v>41</v>
       </c>
@@ -43655,7 +43691,7 @@
         <v>1.1855952139774556E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
       <c r="AR76" s="1" t="s">
         <v>40</v>
       </c>
@@ -43664,7 +43700,7 @@
         <v>0.23962435607558324</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
       <c r="AR77" s="1" t="s">
         <v>16</v>
       </c>
@@ -43673,18 +43709,13 @@
         <v>6.8155440308641104</v>
       </c>
     </row>
-    <row r="86" spans="35:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="35:35" x14ac:dyDescent="0.3">
       <c r="AI86" s="2" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K44:M46"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AQ50:AT50"/>
-    <mergeCell ref="AQ66:AT66"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="AE1:AF1"/>
@@ -43692,6 +43723,11 @@
     <mergeCell ref="AQ5:AT5"/>
     <mergeCell ref="AQ21:AT21"/>
     <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K44:M46"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AQ50:AT50"/>
+    <mergeCell ref="AQ66:AT66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43703,24 +43739,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA77" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AP82" sqref="AP82"/>
+    <sheetView tabSelected="1" topLeftCell="W79" zoomScale="123" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AJ97" sqref="AJ97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="8.85546875" style="2"/>
-    <col min="11" max="13" width="9.140625"/>
-    <col min="14" max="43" width="8.85546875" style="2"/>
-    <col min="44" max="44" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="51" width="8.85546875" style="2"/>
-    <col min="52" max="52" width="11.7109375" style="2" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" style="2" customWidth="1"/>
-    <col min="54" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="13" width="9.109375"/>
+    <col min="14" max="43" width="8.88671875" style="2"/>
+    <col min="44" max="44" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="51" width="8.88671875" style="2"/>
+    <col min="52" max="52" width="11.6640625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="12.33203125" style="2" customWidth="1"/>
+    <col min="54" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -43754,16 +43790,16 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31" t="s">
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="31"/>
+      <c r="AH1" s="28"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>29.8</v>
       </c>
@@ -43827,7 +43863,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -43888,7 +43924,7 @@
         <v>2.0713576601274042E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>32</v>
       </c>
@@ -43950,7 +43986,7 @@
         <v>0.15014984143802224</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>34</v>
       </c>
@@ -44010,14 +44046,14 @@
         <f t="shared" si="9"/>
         <v>0.1256054603747252</v>
       </c>
-      <c r="AQ5" s="32" t="s">
+      <c r="AQ5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="34"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="31"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>36</v>
       </c>
@@ -44092,7 +44128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>38</v>
       </c>
@@ -44166,7 +44202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>40</v>
       </c>
@@ -44235,7 +44271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42</v>
       </c>
@@ -44292,7 +44328,7 @@
         <v>-8.9516456877490214E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44</v>
       </c>
@@ -44356,7 +44392,7 @@
         <v>4.7961470537349893E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>47</v>
       </c>
@@ -44420,7 +44456,7 @@
         <v>2.7652192094570669E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>49</v>
       </c>
@@ -44484,7 +44520,7 @@
         <v>3.7149468893410169E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>50</v>
       </c>
@@ -44548,7 +44584,7 @@
         <v>1.3434547527501168E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>52</v>
       </c>
@@ -44611,7 +44647,7 @@
         <v>0.29096943347254695</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>54</v>
       </c>
@@ -44668,7 +44704,7 @@
         <v>-0.18820610816050198</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>56</v>
       </c>
@@ -44725,7 +44761,7 @@
         <v>-0.23165545712997293</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>58</v>
       </c>
@@ -44782,7 +44818,7 @@
         <v>8.1461373704833306E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>60</v>
       </c>
@@ -44839,7 +44875,7 @@
         <v>0.144429175496672</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>62</v>
       </c>
@@ -44896,7 +44932,7 @@
         <v>0.2287261830529399</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>64</v>
       </c>
@@ -44953,7 +44989,7 @@
         <v>0.26389547746750885</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>66</v>
       </c>
@@ -45009,14 +45045,14 @@
         <f t="shared" si="9"/>
         <v>4.1712770806244137E-2</v>
       </c>
-      <c r="AQ21" s="32" t="s">
+      <c r="AQ21" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="34"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="31"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>68</v>
       </c>
@@ -45092,7 +45128,7 @@
         <v>1.3806490000000001E-23</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>70</v>
       </c>
@@ -45129,10 +45165,10 @@
         <f t="shared" si="12"/>
         <v>-14.82611196930967</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="36"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="2"/>
       <c r="AE23" s="3">
         <f t="shared" si="6"/>
@@ -45169,7 +45205,7 @@
         <v>1.5999999999999999E-19</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>72</v>
       </c>
@@ -45238,7 +45274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>74</v>
       </c>
@@ -45295,7 +45331,7 @@
         <v>-7.9703433423421899E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>76</v>
       </c>
@@ -45358,7 +45394,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>78</v>
       </c>
@@ -45395,10 +45431,10 @@
         <f t="shared" si="12"/>
         <v>-14.341449819540314</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="34" t="s">
         <v>29</v>
       </c>
       <c r="M27" s="2"/>
@@ -45419,7 +45455,7 @@
         <v>0.23822592075817894</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>81</v>
       </c>
@@ -45456,8 +45492,8 @@
         <f t="shared" si="12"/>
         <v>-14.14818999634679</v>
       </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="30"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="2"/>
       <c r="AE28" s="3">
         <f t="shared" si="6"/>
@@ -45484,7 +45520,7 @@
       </c>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>87</v>
       </c>
@@ -45550,7 +45586,7 @@
         <v>1.5403987270294586E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>89.1</v>
       </c>
@@ -45598,7 +45634,7 @@
         <v>2.5033045736199366E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>91</v>
       </c>
@@ -45644,7 +45680,7 @@
         <v>8.1572972827968493E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>92</v>
       </c>
@@ -45690,7 +45726,7 @@
         <v>409.01189622235376</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -45699,7 +45735,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -45708,7 +45744,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -45717,7 +45753,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -45726,7 +45762,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -45735,7 +45771,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -45744,7 +45780,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -45794,7 +45830,7 @@
       <c r="AU39" s="10"/>
       <c r="AV39" s="10"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -45805,11 +45841,11 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="37" t="s">
+      <c r="K40" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -45827,14 +45863,14 @@
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
-      <c r="AE40" s="31" t="s">
+      <c r="AE40" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31" t="s">
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AH40" s="31"/>
+      <c r="AH40" s="28"/>
       <c r="AI40" s="10"/>
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
@@ -45850,7 +45886,7 @@
       <c r="AU40" s="10"/>
       <c r="AV40" s="10"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>4</v>
       </c>
@@ -45881,9 +45917,9 @@
       <c r="J41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -45928,7 +45964,7 @@
       <c r="AU41" s="10"/>
       <c r="AV41" s="10"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>92</v>
       </c>
@@ -45965,15 +46001,15 @@
         <f t="shared" ref="J42:J47" si="20">LN(H42)</f>
         <v>-14.069113316763191</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
       <c r="AE42" s="18"/>
       <c r="AF42" s="18"/>
       <c r="AG42" s="18"/>
       <c r="AH42" s="18"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>90</v>
       </c>
@@ -46021,7 +46057,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>88</v>
       </c>
@@ -46070,7 +46106,7 @@
       <c r="AG44" s="18"/>
       <c r="AH44" s="18"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>86</v>
       </c>
@@ -46124,7 +46160,7 @@
         <v>8.7793225800979258E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>84</v>
       </c>
@@ -46178,14 +46214,14 @@
         <f t="shared" si="22"/>
         <v>0.11425602923968903</v>
       </c>
-      <c r="AQ46" s="32" t="s">
+      <c r="AQ46" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="34"/>
+      <c r="AR46" s="30"/>
+      <c r="AS46" s="30"/>
+      <c r="AT46" s="31"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>82</v>
       </c>
@@ -46252,7 +46288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>80</v>
       </c>
@@ -46319,7 +46355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>78</v>
       </c>
@@ -46386,7 +46422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>76</v>
       </c>
@@ -46434,7 +46470,7 @@
         <v>-2.3581743917759468E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>74</v>
       </c>
@@ -46489,7 +46525,7 @@
         <v>2.9668150211992206E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>72</v>
       </c>
@@ -46550,7 +46586,7 @@
         <v>4.0008091012980109E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>70</v>
       </c>
@@ -46611,7 +46647,7 @@
         <v>1.0406175480780717E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>68</v>
       </c>
@@ -46672,7 +46708,7 @@
         <v>2.6010177484860671E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>66</v>
       </c>
@@ -46733,7 +46769,7 @@
         <v>2.5848487512310538E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>64</v>
       </c>
@@ -46787,7 +46823,7 @@
         <v>-6.1895250576496252E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>62</v>
       </c>
@@ -46841,7 +46877,7 @@
         <v>-6.9361102387407669E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>60</v>
       </c>
@@ -46895,7 +46931,7 @@
         <v>-6.481364075598961E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -46949,7 +46985,7 @@
         <v>-5.2335806819474584E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>56</v>
       </c>
@@ -47003,7 +47039,7 @@
         <v>-3.0563407020522959E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>54</v>
       </c>
@@ -47057,7 +47093,7 @@
         <v>-5.3122018544883076E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>52</v>
       </c>
@@ -47110,14 +47146,14 @@
         <f t="shared" si="32"/>
         <v>-4.4210117362975865E-2</v>
       </c>
-      <c r="AQ62" s="32" t="s">
+      <c r="AQ62" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AR62" s="33"/>
-      <c r="AS62" s="33"/>
-      <c r="AT62" s="34"/>
+      <c r="AR62" s="30"/>
+      <c r="AS62" s="30"/>
+      <c r="AT62" s="31"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>50</v>
       </c>
@@ -47190,7 +47226,7 @@
         <v>1.3806490000000001E-23</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>48</v>
       </c>
@@ -47262,7 +47298,7 @@
         <v>1.5999999999999999E-19</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>46</v>
       </c>
@@ -47328,7 +47364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>44</v>
       </c>
@@ -47382,7 +47418,7 @@
         <v>-3.883476307819933E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>42</v>
       </c>
@@ -47442,7 +47478,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>40</v>
       </c>
@@ -47496,7 +47532,7 @@
         <v>0.10414235814646489</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>39</v>
       </c>
@@ -47558,7 +47594,7 @@
       </c>
       <c r="AT69" s="9"/>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>38</v>
       </c>
@@ -47619,7 +47655,7 @@
         <v>7.2996723492960063E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>37</v>
       </c>
@@ -47680,7 +47716,7 @@
         <v>1.3679497368810471E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>36</v>
       </c>
@@ -47735,7 +47771,7 @@
         <v>0.20355016975995677</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>35</v>
       </c>
@@ -47790,7 +47826,7 @@
         <v>14.25868598831681</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
       <c r="AH78" s="2">
         <v>45</v>
       </c>
@@ -47798,13 +47834,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
       <c r="AA79" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AQ21:AT21"/>
+    <mergeCell ref="AQ5:AT5"/>
+    <mergeCell ref="AQ46:AT46"/>
     <mergeCell ref="AQ62:AT62"/>
     <mergeCell ref="K40:M42"/>
     <mergeCell ref="K29:K32"/>
@@ -47813,11 +47854,6 @@
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AQ21:AT21"/>
-    <mergeCell ref="AQ5:AT5"/>
-    <mergeCell ref="AQ46:AT46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
